--- a/mikro/mikro.xlsx
+++ b/mikro/mikro.xlsx
@@ -136,7 +136,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,17 +185,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +245,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +566,7 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -528,406 +580,412 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
         <v>30000</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3*F3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G11" si="0">E3*F3</f>
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>20000</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4*F4</f>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>2000</v>
       </c>
-      <c r="G5" s="6">
-        <f>E5*F5</f>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>100</v>
       </c>
-      <c r="G6" s="6">
-        <f>E6*F6</f>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="6">
-        <f>E7*F7</f>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>300</v>
       </c>
-      <c r="G8" s="6">
-        <f>E8*F8</f>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>200</v>
       </c>
-      <c r="G9" s="6">
-        <f>E9*F9</f>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>300</v>
       </c>
-      <c r="G10" s="6">
-        <f>E10*F10</f>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>50000</v>
       </c>
-      <c r="G11" s="6">
-        <f>E11*F11</f>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>2000</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" ref="G12:G17" si="0">E12*F12</f>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:G17" si="1">E12*F12</f>
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <v>3000</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>50</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>50</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>50</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
         <v>1200</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
         <v>20000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>E18*F18</f>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <f t="shared" ref="G18:G20" si="1">E19*F19</f>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19:G20" si="2">E19*F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="D20" s="7"/>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>200000</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="G21" s="1">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8">
         <f>SUM(G3:G20)</f>
         <v>329950</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
